--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">new_tag</t>
   </si>
@@ -34,18 +34,9 @@
     <t xml:space="preserve">new_net</t>
   </si>
   <si>
-    <t xml:space="preserve">num_games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tc</t>
-  </si>
-  <si>
     <t xml:space="preserve">book</t>
   </si>
   <si>
-    <t xml:space="preserve">total games</t>
-  </si>
-  <si>
     <t xml:space="preserve">HypnoS 271223</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t xml:space="preserve">nn-0000000000a0.nnue</t>
   </si>
   <si>
-    <t xml:space="preserve">15+0.25</t>
-  </si>
-  <si>
     <t xml:space="preserve">2moves_v1.pgn</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">nn-fa57bea57555.nnue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_tc</t>
   </si>
   <si>
     <t xml:space="preserve">book depth</t>
@@ -113,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,25 +149,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF5EB91E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,36 +204,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,14 +294,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF1F2328"/>
       <rgbColor rgb="FF993300"/>
@@ -509,347 +498,333 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="5" t="n">
+        <v>1336937</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1336937</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="5" t="n">
+        <v>1418823</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>1418823</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B7" s="5" t="n">
+        <v>1314382</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B9" s="5" t="n">
+        <v>1244386</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1314382</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1244386</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerbi\Documents\GitHub\HypnoS-Regression-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,106 +24,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">new_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HypnoS 271223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root_pv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nn-0000000000a0.nnue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2moves_v1.pgn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nn-fa57bea57555.nnue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HypnoS 241223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweak quiet move bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root_pv + NNUEttPv+DepthExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HypnoS 281223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ_V1_10moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockfish 041223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 moves</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+  <si>
+    <t>new_tag</t>
+  </si>
+  <si>
+    <t>new_signature</t>
+  </si>
+  <si>
+    <t>new_options</t>
+  </si>
+  <si>
+    <t>new_net</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>HypnoS 271223</t>
+  </si>
+  <si>
+    <t>Root_pv</t>
+  </si>
+  <si>
+    <t>nn-0000000000a0.nnue</t>
+  </si>
+  <si>
+    <t>2moves_v1.pgn</t>
+  </si>
+  <si>
+    <t>base_tag</t>
+  </si>
+  <si>
+    <t>base_signature</t>
+  </si>
+  <si>
+    <t>base_options</t>
+  </si>
+  <si>
+    <t>nn-fa57bea57555.nnue</t>
+  </si>
+  <si>
+    <t>book depth</t>
+  </si>
+  <si>
+    <t>HypnoS 241223</t>
+  </si>
+  <si>
+    <t>Tweak quiet move bonus</t>
+  </si>
+  <si>
+    <t>base_net</t>
+  </si>
+  <si>
+    <t>2 moves</t>
+  </si>
+  <si>
+    <t>Root_pv + NNUEttPv+DepthExt</t>
+  </si>
+  <si>
+    <t>HypnoS 281223</t>
+  </si>
+  <si>
+    <t>MZ_V1_10moves</t>
+  </si>
+  <si>
+    <t>Stockfish 041223</t>
+  </si>
+  <si>
+    <t>10 moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -171,7 +157,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -179,77 +165,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -308,60 +244,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212529"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -393,7 +345,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -417,7 +369,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -477,38 +429,37 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.29"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,15 +476,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="0"/>
+      <c r="G1"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>1336937</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -546,11 +497,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="0"/>
+      <c r="G2"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -567,15 +518,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="0"/>
+      <c r="G3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>1418823</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -588,11 +539,11 @@
         <v>17</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="0"/>
+      <c r="G4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -601,11 +552,11 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="0"/>
+      <c r="G5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,15 +571,15 @@
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="0"/>
+      <c r="G6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>1314382</v>
       </c>
       <c r="C7" s="3"/>
@@ -637,35 +588,33 @@
         <v>20</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="0"/>
+      <c r="G7"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="0"/>
+      <c r="G8"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>1244386</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
@@ -673,10 +622,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="0"/>
+      <c r="G9"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -686,7 +635,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -696,7 +645,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -706,7 +655,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -716,7 +665,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -726,7 +675,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -736,7 +685,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -746,7 +695,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -756,7 +705,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -766,7 +715,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -776,7 +725,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -786,7 +735,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -796,7 +745,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -806,7 +755,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -816,7 +765,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -827,12 +776,7 @@
       <c r="H24" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -444,15 +444,15 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>new_tag</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>10 moves</t>
+  </si>
+  <si>
+    <t>new_option</t>
+  </si>
+  <si>
+    <t>Master + lazy_thresholds</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +161,12 @@
         <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -180,6 +192,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -444,7 +459,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B21" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,26 +565,17 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3"/>
       <c r="G6"/>
       <c r="H6" s="3"/>
@@ -577,15 +583,19 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1314382</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7"/>
@@ -593,15 +603,19 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1314382</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8"/>
@@ -609,98 +623,143 @@
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1244386</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1244386</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1314382</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1244386</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -777,6 +836,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -142,7 +142,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -195,6 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -459,7 +466,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B20:B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +678,11 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
